--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cd200-Cd200r4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cd200-Cd200r4.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>63.24146666666667</v>
+        <v>38.84293433333333</v>
       </c>
       <c r="H2">
-        <v>189.7244</v>
+        <v>116.528803</v>
       </c>
       <c r="I2">
-        <v>0.6912608225927421</v>
+        <v>0.4759825783603507</v>
       </c>
       <c r="J2">
-        <v>0.7565855924568045</v>
+        <v>0.5627959792472441</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.746352</v>
+        <v>12.087397</v>
       </c>
       <c r="N2">
-        <v>35.23905600000001</v>
+        <v>36.262191</v>
       </c>
       <c r="O2">
-        <v>0.5819925428308605</v>
+        <v>0.4247072411383354</v>
       </c>
       <c r="P2">
-        <v>0.5819925428308604</v>
+        <v>0.4247072411383354</v>
       </c>
       <c r="Q2">
-        <v>742.8565284629334</v>
+        <v>469.5099679319302</v>
       </c>
       <c r="R2">
-        <v>6685.708756166401</v>
+        <v>4225.589711387373</v>
       </c>
       <c r="S2">
-        <v>0.4023086439001023</v>
+        <v>0.2021532476853361</v>
       </c>
       <c r="T2">
-        <v>0.4403271728231287</v>
+        <v>0.2390235276698449</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>63.24146666666667</v>
+        <v>38.84293433333333</v>
       </c>
       <c r="H3">
-        <v>189.7244</v>
+        <v>116.528803</v>
       </c>
       <c r="I3">
-        <v>0.6912608225927421</v>
+        <v>0.4759825783603507</v>
       </c>
       <c r="J3">
-        <v>0.7565855924568045</v>
+        <v>0.5627959792472441</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.436642000000001</v>
+        <v>16.373142</v>
       </c>
       <c r="N3">
-        <v>25.309926</v>
+        <v>49.119426</v>
       </c>
       <c r="O3">
-        <v>0.4180074571691396</v>
+        <v>0.5752927588616645</v>
       </c>
       <c r="P3">
-        <v>0.4180074571691395</v>
+        <v>0.5752927588616645</v>
       </c>
       <c r="Q3">
-        <v>533.5456138216001</v>
+        <v>635.9808795363419</v>
       </c>
       <c r="R3">
-        <v>4801.9105243944</v>
+        <v>5723.827915827078</v>
       </c>
       <c r="S3">
-        <v>0.2889521786926398</v>
+        <v>0.2738293306750146</v>
       </c>
       <c r="T3">
-        <v>0.3162584196336757</v>
+        <v>0.3237724515773991</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.977970666666667</v>
+        <v>2.977970666666666</v>
       </c>
       <c r="H4">
-        <v>8.933912000000001</v>
+        <v>8.933911999999999</v>
       </c>
       <c r="I4">
-        <v>0.03255070701549811</v>
+        <v>0.03649214922944397</v>
       </c>
       <c r="J4">
-        <v>0.03562677812383096</v>
+        <v>0.043147870939245</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.746352</v>
+        <v>12.087397</v>
       </c>
       <c r="N4">
-        <v>35.23905600000001</v>
+        <v>36.262191</v>
       </c>
       <c r="O4">
-        <v>0.5819925428308605</v>
+        <v>0.4247072411383354</v>
       </c>
       <c r="P4">
-        <v>0.5819925428308604</v>
+        <v>0.4247072411383354</v>
       </c>
       <c r="Q4">
-        <v>34.98029169634135</v>
+        <v>35.99591370235466</v>
       </c>
       <c r="R4">
-        <v>314.8226252670721</v>
+        <v>323.963223321192</v>
       </c>
       <c r="S4">
-        <v>0.01894426874689208</v>
+        <v>0.01549848002244558</v>
       </c>
       <c r="T4">
-        <v>0.02073451919315925</v>
+        <v>0.0183252132275997</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.977970666666667</v>
+        <v>2.977970666666666</v>
       </c>
       <c r="H5">
-        <v>8.933912000000001</v>
+        <v>8.933911999999999</v>
       </c>
       <c r="I5">
-        <v>0.03255070701549811</v>
+        <v>0.03649214922944397</v>
       </c>
       <c r="J5">
-        <v>0.03562677812383096</v>
+        <v>0.043147870939245</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.436642000000001</v>
+        <v>16.373142</v>
       </c>
       <c r="N5">
-        <v>25.309926</v>
+        <v>49.119426</v>
       </c>
       <c r="O5">
-        <v>0.4180074571691396</v>
+        <v>0.5752927588616645</v>
       </c>
       <c r="P5">
-        <v>0.4180074571691395</v>
+        <v>0.5752927588616645</v>
       </c>
       <c r="Q5">
-        <v>25.12407240116801</v>
+        <v>48.758736597168</v>
       </c>
       <c r="R5">
-        <v>226.116651610512</v>
+        <v>438.828629374512</v>
       </c>
       <c r="S5">
-        <v>0.01360643826860604</v>
+        <v>0.02099366920699839</v>
       </c>
       <c r="T5">
-        <v>0.01489225893067171</v>
+        <v>0.0248226577116453</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.297988333333333</v>
+        <v>1.675036</v>
       </c>
       <c r="H6">
-        <v>3.893965</v>
+        <v>5.025107999999999</v>
       </c>
       <c r="I6">
-        <v>0.01418766088625051</v>
+        <v>0.02052594552420851</v>
       </c>
       <c r="J6">
-        <v>0.01552840760877916</v>
+        <v>0.02426962694951188</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.746352</v>
+        <v>12.087397</v>
       </c>
       <c r="N6">
-        <v>35.23905600000001</v>
+        <v>36.262191</v>
       </c>
       <c r="O6">
-        <v>0.5819925428308605</v>
+        <v>0.4247072411383354</v>
       </c>
       <c r="P6">
-        <v>0.5819925428308604</v>
+        <v>0.4247072411383354</v>
       </c>
       <c r="Q6">
-        <v>15.24662785522667</v>
+        <v>20.246825121292</v>
       </c>
       <c r="R6">
-        <v>137.21965069704</v>
+        <v>182.221426091628</v>
       </c>
       <c r="S6">
-        <v>0.008257112836010877</v>
+        <v>0.008717517695342361</v>
       </c>
       <c r="T6">
-        <v>0.009037417430347463</v>
+        <v>0.01030748630518379</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.297988333333333</v>
+        <v>1.675036</v>
       </c>
       <c r="H7">
-        <v>3.893965</v>
+        <v>5.025107999999999</v>
       </c>
       <c r="I7">
-        <v>0.01418766088625051</v>
+        <v>0.02052594552420851</v>
       </c>
       <c r="J7">
-        <v>0.01552840760877916</v>
+        <v>0.02426962694951188</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.436642000000001</v>
+        <v>16.373142</v>
       </c>
       <c r="N7">
-        <v>25.309926</v>
+        <v>49.119426</v>
       </c>
       <c r="O7">
-        <v>0.4180074571691396</v>
+        <v>0.5752927588616645</v>
       </c>
       <c r="P7">
-        <v>0.4180074571691395</v>
+        <v>0.5752927588616645</v>
       </c>
       <c r="Q7">
-        <v>10.95066288851</v>
+        <v>27.425602283112</v>
       </c>
       <c r="R7">
-        <v>98.55596599659</v>
+        <v>246.830420548008</v>
       </c>
       <c r="S7">
-        <v>0.005930548050239638</v>
+        <v>0.01180842782886615</v>
       </c>
       <c r="T7">
-        <v>0.006490990178431693</v>
+        <v>0.01396214064432809</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>23.69742</v>
+        <v>37.764002</v>
       </c>
       <c r="H8">
-        <v>47.39484</v>
+        <v>75.52800400000001</v>
       </c>
       <c r="I8">
-        <v>0.2590246385155368</v>
+        <v>0.4627613065200399</v>
       </c>
       <c r="J8">
-        <v>0.1890017999835311</v>
+        <v>0.3647755394155193</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.746352</v>
+        <v>12.087397</v>
       </c>
       <c r="N8">
-        <v>35.23905600000001</v>
+        <v>36.262191</v>
       </c>
       <c r="O8">
-        <v>0.5819925428308605</v>
+        <v>0.4247072411383354</v>
       </c>
       <c r="P8">
-        <v>0.5819925428308604</v>
+        <v>0.4247072411383354</v>
       </c>
       <c r="Q8">
-        <v>278.3582368118401</v>
+        <v>456.4684844827941</v>
       </c>
       <c r="R8">
-        <v>1670.14942087104</v>
+        <v>2738.810906896765</v>
       </c>
       <c r="S8">
-        <v>0.1507504080255017</v>
+        <v>0.1965380777976977</v>
       </c>
       <c r="T8">
-        <v>0.109997638172025</v>
+        <v>0.1549228129799133</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>23.69742</v>
+        <v>37.764002</v>
       </c>
       <c r="H9">
-        <v>47.39484</v>
+        <v>75.52800400000001</v>
       </c>
       <c r="I9">
-        <v>0.2590246385155368</v>
+        <v>0.4627613065200399</v>
       </c>
       <c r="J9">
-        <v>0.1890017999835311</v>
+        <v>0.3647755394155193</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.436642000000001</v>
+        <v>16.373142</v>
       </c>
       <c r="N9">
-        <v>25.309926</v>
+        <v>49.119426</v>
       </c>
       <c r="O9">
-        <v>0.4180074571691396</v>
+        <v>0.5752927588616645</v>
       </c>
       <c r="P9">
-        <v>0.4180074571691395</v>
+        <v>0.5752927588616645</v>
       </c>
       <c r="Q9">
-        <v>199.92664886364</v>
+        <v>618.3153672342842</v>
       </c>
       <c r="R9">
-        <v>1199.55989318184</v>
+        <v>3709.892203405705</v>
       </c>
       <c r="S9">
-        <v>0.1082742304900351</v>
+        <v>0.2662232287223421</v>
       </c>
       <c r="T9">
-        <v>0.07900416181150616</v>
+        <v>0.2098527264356059</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.2722813333333333</v>
+        <v>0.345847</v>
       </c>
       <c r="H10">
-        <v>0.816844</v>
+        <v>1.037541</v>
       </c>
       <c r="I10">
-        <v>0.002976170989972538</v>
+        <v>0.004238020365956876</v>
       </c>
       <c r="J10">
-        <v>0.003257421827054327</v>
+        <v>0.005010983448479815</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.746352</v>
+        <v>12.087397</v>
       </c>
       <c r="N10">
-        <v>35.23905600000001</v>
+        <v>36.262191</v>
       </c>
       <c r="O10">
-        <v>0.5819925428308605</v>
+        <v>0.4247072411383354</v>
       </c>
       <c r="P10">
-        <v>0.5819925428308604</v>
+        <v>0.4247072411383354</v>
       </c>
       <c r="Q10">
-        <v>3.198312384362667</v>
+        <v>4.180389990259001</v>
       </c>
       <c r="R10">
-        <v>28.78481145926401</v>
+        <v>37.623509912331</v>
       </c>
       <c r="S10">
-        <v>0.001732109322353557</v>
+        <v>0.001799917937513623</v>
       </c>
       <c r="T10">
-        <v>0.001895795212200095</v>
+        <v>0.002128200955793724</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.2722813333333333</v>
+        <v>0.345847</v>
       </c>
       <c r="H11">
-        <v>0.816844</v>
+        <v>1.037541</v>
       </c>
       <c r="I11">
-        <v>0.002976170989972538</v>
+        <v>0.004238020365956876</v>
       </c>
       <c r="J11">
-        <v>0.003257421827054327</v>
+        <v>0.005010983448479815</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.436642000000001</v>
+        <v>16.373142</v>
       </c>
       <c r="N11">
-        <v>25.309926</v>
+        <v>49.119426</v>
       </c>
       <c r="O11">
-        <v>0.4180074571691396</v>
+        <v>0.5752927588616645</v>
       </c>
       <c r="P11">
-        <v>0.4180074571691395</v>
+        <v>0.5752927588616645</v>
       </c>
       <c r="Q11">
-        <v>2.297140132616</v>
+        <v>5.662602041274001</v>
       </c>
       <c r="R11">
-        <v>20.674261193544</v>
+        <v>50.96341837146601</v>
       </c>
       <c r="S11">
-        <v>0.001244061667618981</v>
+        <v>0.002438102428443252</v>
       </c>
       <c r="T11">
-        <v>0.001361626614854232</v>
+        <v>0.00288278249268609</v>
       </c>
     </row>
   </sheetData>
